--- a/data/Pittsburgh.xlsx
+++ b/data/Pittsburgh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32300" windowHeight="18180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cleaned_data_Pittsburgh" sheetId="1" r:id="rId1"/>
@@ -1585,12 +1585,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Groups By Topic, in Pittsburgh</a:t>
+              <a:t> Groups By Topic, Pittsburgh</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1863,8 +1864,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="174"/>
-        <c:axId val="-2112618704"/>
-        <c:axId val="2145056736"/>
+        <c:axId val="-2038286496"/>
+        <c:axId val="1779753088"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2362,11 +2363,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2112700032"/>
-        <c:axId val="-2111215024"/>
+        <c:axId val="-2038241472"/>
+        <c:axId val="-2037696736"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="-2112618704"/>
+        <c:axId val="-2038286496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,7 +2424,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2145056736"/>
+        <c:crossAx val="1779753088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2431,7 +2432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2145056736"/>
+        <c:axId val="1779753088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -2491,6 +2492,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2551,12 +2553,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112618704"/>
+        <c:crossAx val="-2038286496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2111215024"/>
+        <c:axId val="-2037696736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210.0"/>
@@ -2595,6 +2597,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2655,12 +2658,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112700032"/>
+        <c:crossAx val="-2038241472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2112700032"/>
+        <c:axId val="-2038241472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2670,7 +2673,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111215024"/>
+        <c:crossAx val="-2037696736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2684,6 +2687,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3292,10 +3296,10 @@
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3584,8 +3588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+    <sheetView topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="N237" sqref="N237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7897,8 +7901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Pittsburgh.xlsx
+++ b/data/Pittsburgh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32300" windowHeight="18180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="18180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="cleaned_data_Pittsburgh" sheetId="1" r:id="rId1"/>
@@ -1560,68 +1560,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Numbers of Events and Local</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Groups By Topic, Pittsburgh</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1864,8 +1803,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="174"/>
-        <c:axId val="-2038286496"/>
-        <c:axId val="1779753088"/>
+        <c:axId val="-2116256192"/>
+        <c:axId val="-2116687856"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2363,11 +2302,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2038241472"/>
-        <c:axId val="-2037696736"/>
+        <c:axId val="-2092830448"/>
+        <c:axId val="2126668976"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="-2038286496"/>
+        <c:axId val="-2116256192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2424,7 +2363,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1779753088"/>
+        <c:crossAx val="-2116687856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2432,7 +2371,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1779753088"/>
+        <c:axId val="-2116687856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -2553,12 +2492,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2038286496"/>
+        <c:crossAx val="-2116256192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2037696736"/>
+        <c:axId val="2126668976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210.0"/>
@@ -2658,12 +2597,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2038241472"/>
+        <c:crossAx val="-2092830448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2038241472"/>
+        <c:axId val="-2092830448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2673,7 +2612,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2037696736"/>
+        <c:crossAx val="2126668976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3298,8 +3237,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3588,7 +3527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F265"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
       <selection activeCell="N237" sqref="N237"/>
     </sheetView>
   </sheetViews>
@@ -7901,7 +7840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
